--- a/Tobias.xlsx
+++ b/Tobias.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5de1fb47c09ad5f/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore\projects\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{5F22596C-BE70-483D-B7D6-66B9F7A4CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74880858-00AF-4226-8C48-1F8024EC0D2C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B0C736-F3B1-4FFF-BE34-CA26DC3830EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7CEF3AC2-03D9-45C1-B63B-C1593504101C}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimental" sheetId="1" r:id="rId1"/>
     <sheet name="Controle" sheetId="2" r:id="rId2"/>
+    <sheet name="TESTE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Alunos</t>
   </si>
@@ -103,13 +104,16 @@
   </si>
   <si>
     <t>1º Aluno</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +126,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -219,9 +230,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,6 +249,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,13 +555,14 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -846,299 +863,332 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="0">AVERAGE(B3:D3)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5C12FA-14E7-4F78-AA10-90D0BE081A41}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(B2:D2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E16" si="0">AVERAGE(B3:D3)</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>3</v>
+    <row r="1" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6">
+        <f>_xlfn.T.TEST(Experimental!E2:E16,Controle!E2:E16,2,3)</f>
+        <v>0.7965127787367825</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>